--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,63 +40,33 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -112,118 +82,127 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>sure</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -581,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,10 +568,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,13 +629,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -668,19 +647,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -692,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -700,13 +679,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -718,19 +697,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,31 +729,31 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L5">
         <v>23</v>
@@ -792,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,37 +779,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.92</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C6">
+        <v>182</v>
+      </c>
+      <c r="D6">
+        <v>182</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>110</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -842,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9166666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -868,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8181818181818182</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -950,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.28</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.8703703703703703</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7727272727272727</v>
+        <v>0.2131782945736434</v>
       </c>
       <c r="C10">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D10">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1018,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>35</v>
+        <v>406</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.8627450980392157</v>
+        <v>0.8125</v>
       </c>
       <c r="L10">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7647058823529411</v>
+        <v>0.1957671957671958</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.8518518518518519</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6363636363636364</v>
+        <v>0.1073825503355705</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1118,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>0.8035714285714286</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,13 +1129,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4666666666666667</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,649 +1147,409 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>237</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="L13">
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <v>15</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L14">
+        <v>21</v>
+      </c>
+      <c r="M14">
+        <v>21</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="L15">
+        <v>17</v>
+      </c>
+      <c r="M15">
+        <v>17</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16">
+        <v>0.7535211267605634</v>
+      </c>
+      <c r="L16">
+        <v>107</v>
+      </c>
+      <c r="M16">
+        <v>107</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="L17">
+        <v>75</v>
+      </c>
+      <c r="M17">
+        <v>75</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L18">
+        <v>25</v>
+      </c>
+      <c r="M18">
+        <v>25</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19">
+        <v>0.675</v>
+      </c>
+      <c r="L19">
+        <v>108</v>
+      </c>
+      <c r="M19">
+        <v>108</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L20">
+        <v>34</v>
+      </c>
+      <c r="M20">
+        <v>34</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L21">
+        <v>16</v>
+      </c>
+      <c r="M21">
+        <v>16</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>8</v>
       </c>
-      <c r="J13" s="1" t="s">
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22">
+        <v>0.6595744680851063</v>
+      </c>
+      <c r="L22">
+        <v>31</v>
+      </c>
+      <c r="M22">
+        <v>31</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K13">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="L13">
-        <v>40</v>
-      </c>
-      <c r="M13">
-        <v>40</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
+      <c r="K23">
+        <v>0.64</v>
+      </c>
+      <c r="L23">
+        <v>32</v>
+      </c>
+      <c r="M23">
+        <v>32</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="L24">
+        <v>60</v>
+      </c>
+      <c r="M24">
+        <v>60</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="L25">
+        <v>29</v>
+      </c>
+      <c r="M25">
+        <v>29</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>13</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14">
-        <v>0.7758620689655172</v>
-      </c>
-      <c r="L14">
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26">
+        <v>0.6031746031746031</v>
+      </c>
+      <c r="L26">
+        <v>38</v>
+      </c>
+      <c r="M26">
+        <v>38</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27">
+        <v>0.5535248041775457</v>
+      </c>
+      <c r="L27">
+        <v>212</v>
+      </c>
+      <c r="M27">
+        <v>212</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M14">
-        <v>45</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.4210526315789473</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>11</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L15">
-        <v>10</v>
-      </c>
-      <c r="M15">
-        <v>10</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>11</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>17</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16">
-        <v>0.76</v>
-      </c>
-      <c r="L16">
-        <v>19</v>
-      </c>
-      <c r="M16">
-        <v>19</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.351931330472103</v>
-      </c>
-      <c r="C17">
-        <v>82</v>
-      </c>
-      <c r="D17">
-        <v>82</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>151</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17">
-        <v>0.75</v>
-      </c>
-      <c r="L17">
-        <v>18</v>
-      </c>
-      <c r="M17">
-        <v>18</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="K28">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="L28">
         <v>14</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18">
-        <v>0.7435897435897436</v>
-      </c>
-      <c r="L18">
-        <v>29</v>
-      </c>
-      <c r="M18">
-        <v>29</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>19</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L19">
-        <v>21</v>
-      </c>
-      <c r="M19">
-        <v>21</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.2906976744186047</v>
-      </c>
-      <c r="C20">
-        <v>25</v>
-      </c>
-      <c r="D20">
-        <v>25</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>61</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L20">
-        <v>12</v>
-      </c>
-      <c r="M20">
-        <v>12</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.2368421052631579</v>
-      </c>
-      <c r="C21">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>9</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>29</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21">
-        <v>0.684931506849315</v>
-      </c>
-      <c r="L21">
-        <v>50</v>
-      </c>
-      <c r="M21">
-        <v>50</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.225</v>
-      </c>
-      <c r="C22">
-        <v>18</v>
-      </c>
-      <c r="D22">
-        <v>18</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>62</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L22">
-        <v>22</v>
-      </c>
-      <c r="M22">
-        <v>22</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.1454545454545454</v>
-      </c>
-      <c r="C23">
-        <v>16</v>
-      </c>
-      <c r="D23">
-        <v>16</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>94</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23">
-        <v>0.6538461538461539</v>
-      </c>
-      <c r="L23">
-        <v>17</v>
-      </c>
-      <c r="M23">
-        <v>17</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24">
-        <v>0.64</v>
-      </c>
-      <c r="L24">
-        <v>16</v>
-      </c>
-      <c r="M24">
-        <v>16</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="L25">
-        <v>12</v>
-      </c>
-      <c r="M25">
-        <v>12</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L26">
-        <v>7</v>
-      </c>
-      <c r="M26">
-        <v>7</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27">
-        <v>0.568075117370892</v>
-      </c>
-      <c r="L27">
-        <v>121</v>
-      </c>
-      <c r="M27">
-        <v>121</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K28">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L28">
-        <v>15</v>
-      </c>
       <c r="M28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1825,18 +1564,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.5271317829457365</v>
+        <v>0.4764705882352941</v>
       </c>
       <c r="L29">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="M29">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1848,21 +1587,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L30">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="M30">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1874,21 +1613,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1900,21 +1639,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.4456521739130435</v>
+        <v>0.4440677966101695</v>
       </c>
       <c r="L32">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="M32">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1926,21 +1665,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.4117647058823529</v>
+        <v>0.4</v>
       </c>
       <c r="L33">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1952,21 +1691,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.4090909090909091</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L34">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1978,21 +1717,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.4</v>
+        <v>0.3389121338912134</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2004,21 +1743,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.4</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2030,21 +1769,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.28125</v>
+        <v>0.325</v>
       </c>
       <c r="L37">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2056,21 +1795,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.2432432432432433</v>
+        <v>0.25</v>
       </c>
       <c r="L38">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2082,21 +1821,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.2368421052631579</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L39">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2108,21 +1847,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.02112676056338028</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="L40">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2134,21 +1873,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.01707317073170732</v>
+        <v>0.02796420581655481</v>
       </c>
       <c r="L41">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2160,33 +1899,111 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>403</v>
+        <v>869</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.01070472792149866</v>
+        <v>0.02108768035516093</v>
       </c>
       <c r="L42">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N42">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>1109</v>
+        <v>882</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K43">
+        <v>0.01074766355140187</v>
+      </c>
+      <c r="L43">
+        <v>23</v>
+      </c>
+      <c r="M43">
+        <v>26</v>
+      </c>
+      <c r="N43">
+        <v>0.88</v>
+      </c>
+      <c r="O43">
+        <v>0.12</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K44">
+        <v>0.007724493080141615</v>
+      </c>
+      <c r="L44">
+        <v>24</v>
+      </c>
+      <c r="M44">
+        <v>24</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K45">
+        <v>0.005006257822277847</v>
+      </c>
+      <c r="L45">
+        <v>16</v>
+      </c>
+      <c r="M45">
+        <v>21</v>
+      </c>
+      <c r="N45">
+        <v>0.76</v>
+      </c>
+      <c r="O45">
+        <v>0.24</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>3180</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,10 +40,16 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>died</t>
   </si>
   <si>
     <t>fraud</t>
@@ -52,12 +58,12 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -82,117 +88,123 @@
     <t>best</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>free</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>friend</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>healthy</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>sure</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
@@ -200,9 +212,6 @@
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -560,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>13</v>
@@ -647,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>0.9393939393939394</v>
@@ -679,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8529411764705882</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4">
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="L4">
+        <v>54</v>
+      </c>
+      <c r="M4">
+        <v>54</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4">
-        <v>0.9322033898305084</v>
-      </c>
-      <c r="L4">
-        <v>55</v>
-      </c>
-      <c r="M4">
-        <v>55</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6944444444444444</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.8846153846153846</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6232876712328768</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C6">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="L6">
         <v>23</v>
       </c>
-      <c r="K6">
-        <v>0.875</v>
-      </c>
-      <c r="L6">
-        <v>98</v>
-      </c>
       <c r="M6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6153846153846154</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.8448275862068966</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5172413793103449</v>
+        <v>0.565068493150685</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8260869565217391</v>
+        <v>0.8203125</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.28</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8170731707317073</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2131782945736434</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C10">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>406</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8125</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1957671957671958</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1088,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1073825503355705</v>
+        <v>0.2170542635658915</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>133</v>
+        <v>404</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05952380952380952</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.7894736842105263</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,21 +1180,45 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.1208053691275168</v>
+      </c>
+      <c r="C14">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>131</v>
+      </c>
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1197,21 +1230,45 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.07539682539682539</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>233</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K15">
-        <v>0.7727272727272727</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1223,21 +1280,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.7535211267605634</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L16">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M16">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1249,21 +1306,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.7075471698113207</v>
+        <v>0.7</v>
       </c>
       <c r="L17">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="M17">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1275,21 +1332,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.6944444444444444</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1301,21 +1358,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.675</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="L19">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="M19">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1327,21 +1384,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K20">
         <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1353,21 +1410,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.64</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1379,21 +1436,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.6595744680851063</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1405,21 +1462,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.64</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1431,21 +1488,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.6382978723404256</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1457,12 +1514,12 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>0.6041666666666666</v>
@@ -1488,16 +1545,16 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.6031746031746031</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1509,21 +1566,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.5535248041775457</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L27">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1535,21 +1592,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>171</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.5185185185185185</v>
+        <v>0.5300261096605744</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1561,21 +1618,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.4764705882352941</v>
+        <v>0.5</v>
       </c>
       <c r="L29">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="M29">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1587,21 +1644,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>178</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.4606741573033708</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L30">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M30">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1613,21 +1670,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.4487179487179487</v>
+        <v>0.4779661016949153</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1639,21 +1696,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>43</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.4440677966101695</v>
+        <v>0.475</v>
       </c>
       <c r="L32">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1665,21 +1722,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>164</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.4</v>
+        <v>0.4647058823529412</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1691,21 +1748,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>27</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.3972602739726027</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1717,21 +1774,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.3389121338912134</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L35">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1743,21 +1800,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>158</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.3384615384615385</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1769,21 +1826,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>43</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.325</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1795,21 +1852,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.25</v>
+        <v>0.28125</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1821,21 +1878,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.2142857142857143</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1847,15 +1904,15 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.03827751196172249</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L40">
         <v>16</v>
@@ -1873,21 +1930,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>402</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.02796420581655481</v>
+        <v>0.04086538461538462</v>
       </c>
       <c r="L41">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1899,21 +1956,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>869</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.02108768035516093</v>
+        <v>0.03467561521252797</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1925,47 +1982,47 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>882</v>
+        <v>863</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.01074766355140187</v>
+        <v>0.03110047846889952</v>
       </c>
       <c r="L43">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N43">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>2117</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.007724493080141615</v>
+        <v>0.01775804661487236</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1977,33 +2034,59 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>3083</v>
+        <v>885</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.005006257822277847</v>
+        <v>0.009350163627863487</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N45">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="O45">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>3180</v>
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K46">
+        <v>0.008695652173913044</v>
+      </c>
+      <c r="L46">
+        <v>27</v>
+      </c>
+      <c r="M46">
+        <v>29</v>
+      </c>
+      <c r="N46">
+        <v>0.93</v>
+      </c>
+      <c r="O46">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>3078</v>
       </c>
     </row>
   </sheetData>
